--- a/data/ivol2.xlsx
+++ b/data/ivol2.xlsx
@@ -368,6 +368,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyymmdd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +409,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -715,7 +718,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
